--- a/3-样本详细疾病信息表.xlsx
+++ b/3-样本详细疾病信息表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840"/>
+    <workbookView windowWidth="28800" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <t>Sequence ID</t>
   </si>
@@ -151,6 +151,9 @@
     <t>IVA期</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>2018年01月10日手术</t>
   </si>
   <si>
@@ -293,6 +296,241 @@
   </si>
   <si>
     <t>Coverage</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>既往肿瘤病史</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若有，注明肿瘤类型）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术前肿瘤治疗情况（射频、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TACE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高血脂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(TC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LDL-C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HDL-C)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AFP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CEA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CA19-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抗原</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抗体</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -300,10 +538,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -340,6 +578,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,20 +608,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,55 +633,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,11 +649,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,6 +687,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -467,6 +717,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -482,42 +748,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -540,43 +777,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,133 +945,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,17 +1008,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,39 +1043,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -868,155 +1066,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1031,18 +1268,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1055,87 +1304,81 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1402,23 +1645,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:AN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="10" max="10" width="26.25" customWidth="1"/>
     <col min="11" max="11" width="23.25" customWidth="1"/>
+    <col min="13" max="13" width="19.0357142857143" customWidth="1"/>
+    <col min="14" max="14" width="31.6964285714286" customWidth="1"/>
+    <col min="24" max="24" width="34.6785714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:40">
+    <row r="1" s="1" customFormat="1" ht="17.55" spans="1:40">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1440,649 +1686,710 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AA1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AB1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AC1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AD1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AE1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AF1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AG1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AH1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AI1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AK1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AL1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-    </row>
-    <row r="2" ht="15.75" spans="1:38">
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+    </row>
+    <row r="2" ht="17.55" spans="1:38">
       <c r="A2">
         <v>7980</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>10756100</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="17">
         <v>75</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="11" t="s">
+      <c r="M2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="11" t="s">
+      <c r="N2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="11"/>
-      <c r="AK2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL2" s="11" t="s">
+      <c r="R2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK2" s="15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" ht="15" spans="1:38">
+      <c r="AL2" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:38">
       <c r="A3">
         <v>7981</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>10754611</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12" t="s">
+      <c r="D3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="17">
         <v>79</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="21" t="s">
+      <c r="K3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="11" t="s">
+      <c r="L3" s="15"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="AK3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL3" s="11" t="s">
+      <c r="S3" s="15"/>
+      <c r="AK3" s="15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" ht="15" spans="1:38">
+      <c r="AL3" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" ht="16.8" spans="1:38">
       <c r="A4">
         <v>7982</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>3212472</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12" t="s">
+      <c r="C4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="17">
         <v>57</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="11" t="s">
+      <c r="K4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="11" t="s">
+      <c r="L4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="11"/>
-      <c r="AK4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL4" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:38">
+      <c r="R4" s="14"/>
+      <c r="S4" s="15"/>
+      <c r="AK4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL4" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" ht="16.8" spans="1:38">
       <c r="A5">
         <v>7983</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>12623837</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="13">
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="17">
         <v>69</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="11" t="s">
+      <c r="J5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="K5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="AK5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL5" s="11" t="s">
+      <c r="L5" s="15" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" ht="15" spans="1:38">
+      <c r="M5" s="14"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="15"/>
+      <c r="AK5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL5" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" ht="16.8" spans="1:38">
       <c r="A6">
         <v>7984</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>12609683</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="13">
+      <c r="C6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="17">
         <v>84</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11"/>
-      <c r="AK6" s="11" t="s">
+      <c r="J6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AL6" s="11"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="15"/>
+      <c r="AK6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL6" s="15"/>
     </row>
     <row r="7" spans="9:9">
-      <c r="I7" s="13"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="9" spans="14:14">
-      <c r="N9" s="11"/>
+      <c r="N9" s="15"/>
     </row>
     <row r="10" spans="14:14">
-      <c r="N10" s="11"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="14:14">
-      <c r="N11" s="11"/>
+      <c r="N11" s="15"/>
     </row>
     <row r="12" spans="14:14">
-      <c r="N12" s="11"/>
+      <c r="N12" s="15"/>
     </row>
     <row r="13" spans="14:14">
-      <c r="N13" s="11"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="2:11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" ht="14" spans="2:11">
       <c r="B16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" ht="14" spans="2:11">
+      <c r="B17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="2:11">
-      <c r="B17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="2:11">
-      <c r="B18" s="14" t="s">
+    </row>
+    <row r="18" ht="14" spans="2:11">
+      <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="14" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="22" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" ht="15" spans="2:11">
-      <c r="B19" s="14" t="s">
+      <c r="K18" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" ht="14" spans="2:11">
+      <c r="B19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K19" s="14" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" ht="15" spans="2:11">
-      <c r="B20" s="14" t="s">
+      <c r="K19" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" ht="14" spans="2:11">
+      <c r="B20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20" s="14" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="21" ht="15" spans="2:11">
-      <c r="B21" s="14" t="s">
+      <c r="K20" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" ht="14" spans="2:11">
+      <c r="B21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="K21" s="14" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" ht="15" spans="2:11">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
+      <c r="K21" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" ht="14" spans="2:11">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="K22" s="14" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" ht="15" spans="4:11">
-      <c r="D23" s="14" t="s">
+      <c r="K22" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" ht="14" spans="4:11">
+      <c r="D23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="K23" s="14" t="s">
+      <c r="I23" s="9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" ht="15" spans="4:11">
-      <c r="D24" s="14" t="s">
+      <c r="K23" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" ht="14" spans="4:11">
+      <c r="D24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" ht="15" spans="4:11">
-      <c r="D25" s="14" t="s">
+      <c r="K24" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" ht="14" spans="4:11">
+      <c r="D25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4">
-      <c r="D26" s="15" t="s">
+      <c r="K25" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" ht="16.8" spans="4:4">
+      <c r="D26" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="15" t="s">
+    <row r="27" ht="16.8" spans="4:4">
+      <c r="D27" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="4:4">
-      <c r="D28" s="14" t="s">
+    <row r="28" ht="14" spans="4:4">
+      <c r="D28" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="4:4">
-      <c r="D29" s="14" t="s">
+    <row r="29" ht="14" spans="4:4">
+      <c r="D29" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="4:4">
-      <c r="D30" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" ht="15" spans="4:4">
-      <c r="D31" s="14" t="s">
+    <row r="30" ht="14" spans="4:4">
+      <c r="D30" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" ht="13.6" spans="4:4">
+      <c r="D31" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="4:4">
-      <c r="D32" s="14" t="s">
+    <row r="32" ht="13.6" spans="4:4">
+      <c r="D32" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="4:4">
-      <c r="D33" s="14" t="s">
+    <row r="33" ht="13.6" spans="4:4">
+      <c r="D33" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="4:4">
-      <c r="D34" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" ht="15" spans="4:4">
-      <c r="D35" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" ht="15" spans="4:4">
-      <c r="D36" s="14" t="s">
+    <row r="34" ht="14" spans="4:4">
+      <c r="D34" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" ht="14" spans="4:4">
+      <c r="D35" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" ht="13.6" spans="4:4">
+      <c r="D36" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="4:4">
-      <c r="D37" s="14" t="s">
+    <row r="37" ht="13.6" spans="4:4">
+      <c r="D37" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="4:4">
-      <c r="D38" s="14" t="s">
+    <row r="38" ht="13.6" spans="4:4">
+      <c r="D38" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="4:4">
-      <c r="D39" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" ht="15" spans="4:4">
-      <c r="D40" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" ht="15" spans="4:4">
-      <c r="D41" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" ht="15" spans="4:4">
-      <c r="D42" s="14" t="s">
+    <row r="39" ht="14" spans="4:4">
+      <c r="D39" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" ht="14" spans="4:4">
+      <c r="D40" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" ht="14" spans="4:4">
+      <c r="D41" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" ht="14" spans="4:4">
+      <c r="D42" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="4:4">
-      <c r="D43" s="14" t="s">
+    <row r="43" ht="13.6" spans="4:4">
+      <c r="D43" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="4:4">
-      <c r="D44" s="14" t="s">
+    <row r="44" ht="13.6" spans="4:4">
+      <c r="D44" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="4:4">
-      <c r="D45" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" ht="15" spans="4:4">
-      <c r="D46" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" ht="15" spans="4:4">
-      <c r="D47" s="14" t="s">
+    <row r="45" ht="14" spans="4:4">
+      <c r="D45" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" ht="14" spans="4:4">
+      <c r="D46" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" ht="13.6" spans="4:4">
+      <c r="D47" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="4:4">
-      <c r="D48" s="14" t="s">
+    <row r="48" ht="13.6" spans="4:4">
+      <c r="D48" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="4:4">
-      <c r="D49" s="14" t="s">
+    <row r="49" ht="13.6" spans="4:4">
+      <c r="D49" s="11" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>